--- a/api/python/TaiGerTranscriptAnalyzerJS/database/ComputerScience/CS_Course_database.xlsx
+++ b/api/python/TaiGerTranscriptAnalyzerJS/database/ComputerScience/CS_Course_database.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>所有科目</t>
   </si>
@@ -619,6 +619,18 @@
   </si>
   <si>
     <t xml:space="preserve">Formal Language and Automata Theory</t>
+  </si>
+  <si>
+    <t>虛實整合系統</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyber Physical System</t>
+  </si>
+  <si>
+    <t>訊號處理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal Processing</t>
   </si>
 </sst>
 </file>
@@ -667,7 +679,6 @@
     </font>
     <font>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Linux Libertine G"/>
     </font>
     <font>
@@ -742,7 +753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -784,9 +795,6 @@
     </xf>
     <xf fontId="6" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1299,7 +1307,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A93" zoomScale="100" workbookViewId="0">
       <selection activeCell="B101" activeCellId="0" sqref="B101"/>
     </sheetView>
   </sheetViews>
@@ -4037,7 +4045,12 @@
       <c r="W101" s="9"/>
     </row>
     <row r="102" ht="16.199999999999999">
-      <c r="B102" s="3"/>
+      <c r="A102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4059,8 +4072,12 @@
       <c r="W102" s="9"/>
     </row>
     <row r="103" ht="16.199999999999999">
-      <c r="A103" s="14"/>
-      <c r="B103" s="3"/>
+      <c r="A103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -6602,7 +6619,7 @@
       <c r="W217" s="9"/>
     </row>
     <row r="218" ht="16.199999999999999">
-      <c r="A218" s="15"/>
+      <c r="A218" s="14"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -7155,7 +7172,7 @@
       <c r="W242" s="9"/>
     </row>
     <row r="243" ht="16.199999999999999">
-      <c r="A243" s="15"/>
+      <c r="A243" s="14"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -7200,7 +7217,7 @@
       <c r="W244" s="9"/>
     </row>
     <row r="245" ht="16.199999999999999">
-      <c r="A245" s="15"/>
+      <c r="A245" s="14"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -7312,7 +7329,7 @@
       <c r="W249" s="9"/>
     </row>
     <row r="250" ht="16.199999999999999">
-      <c r="A250" s="15"/>
+      <c r="A250" s="14"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -7357,7 +7374,7 @@
       <c r="W251" s="9"/>
     </row>
     <row r="252" ht="16.199999999999999">
-      <c r="A252" s="15"/>
+      <c r="A252" s="14"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -10922,7 +10939,7 @@
       <c r="W413" s="9"/>
     </row>
     <row r="414" ht="16.199999999999999">
-      <c r="A414" s="15"/>
+      <c r="A414" s="14"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -11100,7 +11117,7 @@
       <c r="W421" s="9"/>
     </row>
     <row r="422" ht="16.199999999999999">
-      <c r="A422" s="15"/>
+      <c r="A422" s="14"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>

--- a/api/python/TaiGerTranscriptAnalyzerJS/database/ComputerScience/CS_Course_database.xlsx
+++ b/api/python/TaiGerTranscriptAnalyzerJS/database/ComputerScience/CS_Course_database.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>所有科目</t>
   </si>
@@ -631,6 +631,30 @@
   </si>
   <si>
     <t xml:space="preserve">Signal Processing</t>
+  </si>
+  <si>
+    <t>社群遊戲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Gaming</t>
+  </si>
+  <si>
+    <t>實時電腦圖型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Time Computer Graphic</t>
+  </si>
+  <si>
+    <t>遊戲工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">games engineering</t>
+  </si>
+  <si>
+    <t>電腦遊戲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">computer games</t>
   </si>
 </sst>
 </file>
@@ -4099,7 +4123,12 @@
       <c r="W103" s="9"/>
     </row>
     <row r="104" ht="16.199999999999999">
-      <c r="B104" s="3"/>
+      <c r="A104" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4120,8 +4149,13 @@
       <c r="V104" s="3"/>
       <c r="W104" s="9"/>
     </row>
-    <row r="105" ht="16.199999999999999">
-      <c r="B105" s="3"/>
+    <row r="105" ht="30">
+      <c r="A105" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4143,7 +4177,12 @@
       <c r="W105" s="9"/>
     </row>
     <row r="106" ht="16.199999999999999">
-      <c r="B106" s="3"/>
+      <c r="A106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4165,7 +4204,12 @@
       <c r="W106" s="9"/>
     </row>
     <row r="107" ht="16.199999999999999">
-      <c r="B107" s="3"/>
+      <c r="A107" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
